--- a/supplier_data.xlsx
+++ b/supplier_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -56,12 +56,19 @@
   </si>
   <si>
     <t>920-4806</t>
+  </si>
+  <si>
+    <t>50-9505</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,11 +656,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,7 +1011,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1009,6 +1019,7 @@
     <col min="1" max="1" width="13.8984375" customWidth="1"/>
     <col min="2" max="2" width="21.09765625" customWidth="1"/>
     <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1039,7 +1050,7 @@
       <c r="C2">
         <v>2341</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>500</v>
       </c>
       <c r="E2" s="1">
@@ -1056,7 +1067,7 @@
       <c r="C3">
         <v>2341</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>500</v>
       </c>
       <c r="E3" s="1">
@@ -1073,7 +1084,7 @@
       <c r="C4">
         <v>5467</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>750</v>
       </c>
       <c r="E4" s="1">
@@ -1090,7 +1101,7 @@
       <c r="C5">
         <v>5467</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>750</v>
       </c>
       <c r="E5" s="1">
@@ -1107,7 +1118,7 @@
       <c r="C6">
         <v>7009</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>250</v>
       </c>
       <c r="E6" s="1">
@@ -1124,7 +1135,7 @@
       <c r="C7">
         <v>7009</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>250</v>
       </c>
       <c r="E7" s="1">
@@ -1136,12 +1147,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>6650</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>125</v>
       </c>
       <c r="E8" s="1">
@@ -1153,12 +1164,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>6650</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>125</v>
       </c>
       <c r="E9" s="1">
@@ -1175,7 +1186,7 @@
       <c r="C10">
         <v>3321</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>615</v>
       </c>
       <c r="E10" s="1">
@@ -1192,7 +1203,7 @@
       <c r="C11">
         <v>3322</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>615</v>
       </c>
       <c r="E11" s="1">
@@ -1209,7 +1220,7 @@
       <c r="C12">
         <v>3323</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>615</v>
       </c>
       <c r="E12" s="1">
@@ -1226,7 +1237,7 @@
       <c r="C13">
         <v>3324</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>615</v>
       </c>
       <c r="E13" s="1">
